--- a/posesiones/1485999.xlsx
+++ b/posesiones/1485999.xlsx
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>10</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>20</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>7</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>19</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>17</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>26</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>10</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>32</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R27">
         <v>21</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>10</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>23</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>26</v>
@@ -3436,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37">
         <v>17</v>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R38">
         <v>13</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R39">
         <v>18</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>19</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>23</v>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>22</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>6</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>15</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R71">
         <v>15</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>17</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R81">
         <v>32</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>14</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R86">
         <v>28</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R89">
         <v>9</v>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R90">
         <v>27</v>
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>15</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>24</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>16</v>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6426,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>13</v>
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6579,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6623,10 +6623,10 @@
         <v>1</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6667,10 +6667,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>20</v>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R106">
         <v>18</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>16</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7026,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>18</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7126,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R112">
         <v>18</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>20</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R116">
         <v>10</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R118">
         <v>15</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R120">
         <v>17</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7820,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R126">
         <v>27</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R128">
         <v>17</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R130">
         <v>6</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R132">
         <v>14</v>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R134">
         <v>27</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R144">
         <v>24</v>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R148">
         <v>13</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8990,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9228,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R155">
         <v>13</v>
@@ -9281,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R156">
         <v>21</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R160">
         <v>22</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R161">
         <v>22</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9628,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R163">
         <v>26</v>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R169">
         <v>21</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10019,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R171">
         <v>10</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10219,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R175">
         <v>15</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10601,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R183">
         <v>15</v>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10701,7 +10701,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R185">
         <v>25</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -10945,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R190">
         <v>28</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R192">
         <v>15</v>
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11530,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R202">
         <v>18</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11671,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11765,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11815,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R208">
         <v>13</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R210">
         <v>19</v>
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>22</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>13</v>
@@ -12162,10 +12162,10 @@
         <v>1</v>
       </c>
       <c r="P215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12488,10 +12488,10 @@
         <v>1</v>
       </c>
       <c r="P222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R223">
         <v>16</v>
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R225">
         <v>22</v>
@@ -12691,7 +12691,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12838,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R229">
         <v>31</v>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12938,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13035,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R233">
         <v>11</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R238">
         <v>27</v>
@@ -13332,7 +13332,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R239">
         <v>16</v>
@@ -13382,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R242">
         <v>0</v>
@@ -13532,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R243">
         <v>18</v>
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13635,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R245">
         <v>22</v>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R247">
         <v>11</v>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13841,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R249">
         <v>7</v>
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14079,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R254">
         <v>19</v>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14176,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14323,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R259">
         <v>24</v>
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R261">
         <v>4</v>
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14623,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R265">
         <v>24</v>
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14864,7 +14864,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R271">
         <v>23</v>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15061,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15108,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R276">
         <v>26</v>
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15261,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R278">
         <v>16</v>
@@ -15311,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15499,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R283">
         <v>26</v>
@@ -15552,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R284">
         <v>31</v>
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>12</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R289">
         <v>34</v>
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R290">
         <v>17</v>
@@ -15911,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R291">
         <v>4</v>
@@ -15961,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R293">
         <v>5</v>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R295">
         <v>18</v>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16305,7 +16305,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16446,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R305">
         <v>18</v>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16690,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R307">
         <v>19</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16787,7 +16787,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16834,7 +16834,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17072,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R315">
         <v>22</v>
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17172,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17222,7 +17222,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R318">
         <v>23</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R322">
         <v>9</v>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17660,7 +17660,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R327">
         <v>31</v>
@@ -17710,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17851,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17898,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17945,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R334">
         <v>11</v>
@@ -18039,10 +18039,10 @@
         <v>1</v>
       </c>
       <c r="P335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18089,7 +18089,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18136,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18271,10 +18271,10 @@
         <v>1</v>
       </c>
       <c r="P340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18321,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18368,7 +18368,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18415,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="R344">
         <v>10</v>
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R347">
         <v>20</v>
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18712,7 +18712,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R349">
         <v>22</v>
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18815,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R351">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18918,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R353">
         <v>8</v>
@@ -18971,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19065,7 +19065,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R356">
         <v>24</v>
@@ -19112,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19159,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19206,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19300,7 +19300,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R361">
         <v>0</v>
@@ -19353,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R362">
         <v>0</v>
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19450,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19547,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R366">
         <v>10</v>
@@ -19600,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R367">
         <v>21</v>
@@ -19653,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19703,7 +19703,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R369">
         <v>7</v>
@@ -19753,7 +19753,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R371">
         <v>18</v>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19903,7 +19903,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R373">
         <v>7</v>
@@ -19953,7 +19953,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20003,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R375">
         <v>27</v>
@@ -20056,7 +20056,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20106,7 +20106,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R377">
         <v>7</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20203,7 +20203,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20303,7 +20303,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R381">
         <v>23</v>
@@ -20353,7 +20353,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20403,7 +20403,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R383">
         <v>18</v>
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20594,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20641,7 +20641,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20832,7 +20832,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R392">
         <v>21</v>
@@ -20882,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20929,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -20979,7 +20979,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R395">
         <v>15</v>
@@ -21029,7 +21029,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21079,7 +21079,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R397">
         <v>21</v>
@@ -21132,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21182,7 +21182,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R399">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21285,7 +21285,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R401">
         <v>15</v>
@@ -21335,7 +21335,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21473,7 +21473,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21520,7 +21520,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R407">
         <v>0</v>
@@ -21620,7 +21620,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21667,7 +21667,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R410">
         <v>20</v>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21814,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21861,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21908,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -21955,7 +21955,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22005,7 +22005,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R416">
         <v>4</v>
@@ -22055,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22155,7 +22155,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R419">
         <v>22</v>
@@ -22208,7 +22208,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R420">
         <v>4</v>
@@ -22258,7 +22258,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22355,7 +22355,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R423">
         <v>16</v>
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22449,7 +22449,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22499,7 +22499,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R426">
         <v>29</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22602,7 +22602,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R428">
         <v>17</v>
@@ -22652,7 +22652,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22699,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22749,7 +22749,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R431">
         <v>21</v>
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22849,7 +22849,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R433">
         <v>16</v>
@@ -22902,7 +22902,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R434">
         <v>24</v>
@@ -22955,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R436">
         <v>6</v>
@@ -23058,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23108,7 +23108,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R438">
         <v>7</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23255,7 +23255,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23305,7 +23305,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R442">
         <v>17</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23408,7 +23408,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R444">
         <v>5</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23505,7 +23505,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23599,7 +23599,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23646,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23696,7 +23696,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R450">
         <v>9</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23799,7 +23799,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R452">
         <v>19</v>
@@ -23852,7 +23852,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R453">
         <v>17</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -23999,7 +23999,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R456">
         <v>25</v>
@@ -24049,7 +24049,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24090,10 +24090,10 @@
         <v>1</v>
       </c>
       <c r="P458" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q458">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24134,7 +24134,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
